--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/37.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/37.xlsx
@@ -479,13 +479,13 @@
         <v>-22.1727058414929</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.234344307982372</v>
+        <v>-9.187395309991944</v>
       </c>
       <c r="F2" t="n">
-        <v>5.220605413510545</v>
+        <v>5.27692850033565</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.65999417349016</v>
+        <v>-15.69615511393901</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.39494618229055</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.588752945907897</v>
+        <v>-9.543689239526676</v>
       </c>
       <c r="F3" t="n">
-        <v>5.111206130965082</v>
+        <v>5.166193802900331</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.19341068481673</v>
+        <v>-15.22514642690507</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.32246609455163</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.675646559868433</v>
+        <v>-9.619781703642788</v>
       </c>
       <c r="F4" t="n">
-        <v>5.278080622985722</v>
+        <v>5.339666815553201</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.47050609110798</v>
+        <v>-14.49878546524611</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.03643362825997</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.59086399001929</v>
+        <v>-10.55207149669926</v>
       </c>
       <c r="F5" t="n">
-        <v>5.333932386908526</v>
+        <v>5.393921318529315</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.62132623649079</v>
+        <v>-13.63536118513712</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.57512065656632</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.18106500212431</v>
+        <v>-11.13986352508139</v>
       </c>
       <c r="F6" t="n">
-        <v>5.55461624360866</v>
+        <v>5.615914405513622</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.86665971608801</v>
+        <v>-12.88425577110729</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.998032237241</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.93886058290625</v>
+        <v>-11.89802569034291</v>
       </c>
       <c r="F7" t="n">
-        <v>5.852361394835194</v>
+        <v>5.915335371503897</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.6617881778668</v>
+        <v>-11.66277010057993</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.37152185386413</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.72955712072946</v>
+        <v>-12.68852584362349</v>
       </c>
       <c r="F8" t="n">
-        <v>6.090458014314825</v>
+        <v>6.154767405873383</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.99662063969007</v>
+        <v>-10.98986501142374</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.74691493563288</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.42907886156288</v>
+        <v>-13.403260840359</v>
       </c>
       <c r="F9" t="n">
-        <v>6.158302327640649</v>
+        <v>6.222690273016258</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.922226991589502</v>
+        <v>-9.904932059535582</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.18543623132903</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.44591874637122</v>
+        <v>-14.41280831248449</v>
       </c>
       <c r="F10" t="n">
-        <v>6.33853096855985</v>
+        <v>6.398729377026107</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.343416282956793</v>
+        <v>-9.319038415065499</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.711129455182252</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.35702519342978</v>
+        <v>-15.32370528269758</v>
       </c>
       <c r="F11" t="n">
-        <v>6.553585135038042</v>
+        <v>6.618889541612572</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.638657620986679</v>
+        <v>-8.601750419275852</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.364713360943441</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.52726759063462</v>
+        <v>-16.50209109226998</v>
       </c>
       <c r="F12" t="n">
-        <v>6.515538902979986</v>
+        <v>6.576758511067897</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.228947095857704</v>
+        <v>-8.191764955787201</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.141905535018102</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.40733218765545</v>
+        <v>-17.38019184386455</v>
       </c>
       <c r="F13" t="n">
-        <v>6.371287910269849</v>
+        <v>6.42446884441294</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.890916928787178</v>
+        <v>-7.857400633512359</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.065265785505908</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.70817030570651</v>
+        <v>-18.68351749945554</v>
       </c>
       <c r="F14" t="n">
-        <v>6.451046219181644</v>
+        <v>6.501739615784807</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.032965231266027</v>
+        <v>-6.985413987344877</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.112028578769101</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.74671722862643</v>
+        <v>-19.73122903436467</v>
       </c>
       <c r="F15" t="n">
-        <v>6.408522419551717</v>
+        <v>6.456885386249054</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.556457777038565</v>
+        <v>-6.503617242769359</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.285252399044628</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.69898587581937</v>
+        <v>-20.6775014068561</v>
       </c>
       <c r="F16" t="n">
-        <v>6.352958686291432</v>
+        <v>6.398650823209056</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.973968131307331</v>
+        <v>-5.923169996281433</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.549565347536413</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.70507697999465</v>
+        <v>-21.68600149475426</v>
       </c>
       <c r="F17" t="n">
-        <v>6.645885870072211</v>
+        <v>6.69707677418336</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.965143919192006</v>
+        <v>-5.913337676847297</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.895168447862638</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.53490641101178</v>
+        <v>-22.51814826337437</v>
       </c>
       <c r="F18" t="n">
-        <v>6.983117406669392</v>
+        <v>7.038209817027375</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.45136267877415</v>
+        <v>-5.398744713653254</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.288551241024463</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.16016861012693</v>
+        <v>-23.13634061895499</v>
       </c>
       <c r="F19" t="n">
-        <v>7.290734154238587</v>
+        <v>7.34271059652024</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.602811254693359</v>
+        <v>-4.544079184145376</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.723428174917217</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.03841337705276</v>
+        <v>-24.03184104102621</v>
       </c>
       <c r="F20" t="n">
-        <v>7.490103741912391</v>
+        <v>7.548992920094475</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.079053679510108</v>
+        <v>-4.008577813313096</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.181463748415473</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.28695765420008</v>
+        <v>-24.26539463141976</v>
       </c>
       <c r="F21" t="n">
-        <v>7.369811663402612</v>
+        <v>7.418593583790884</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.003864584290075</v>
+        <v>-3.93920170055479</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.6687480197166401</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.97063770859502</v>
+        <v>-24.95043628531024</v>
       </c>
       <c r="F22" t="n">
-        <v>7.749750291869503</v>
+        <v>7.803638210366048</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.29546944548384</v>
+        <v>-4.237090867112583</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.1863678879343557</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.15760888547771</v>
+        <v>-25.12837377323214</v>
       </c>
       <c r="F23" t="n">
-        <v>7.459232091811601</v>
+        <v>7.503169860148434</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.154439159272767</v>
+        <v>-4.10955874513133</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.2477625579534725</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.56564359584295</v>
+        <v>-25.5309882702209</v>
       </c>
       <c r="F24" t="n">
-        <v>7.436975176980667</v>
+        <v>7.482562575475558</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.989999835580687</v>
+        <v>-3.938678008441121</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.61987176431695</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.68092132236434</v>
+        <v>-25.64400102835068</v>
       </c>
       <c r="F25" t="n">
-        <v>7.54925476615131</v>
+        <v>7.601074100798861</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.893404825214432</v>
+        <v>-3.849663441420225</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9095281230251014</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.00293960305944</v>
+        <v>-25.96889961567095</v>
       </c>
       <c r="F26" t="n">
-        <v>7.460724614335558</v>
+        <v>7.511810780023973</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.693694837666742</v>
+        <v>-3.651563807122068</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.103662208310238</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.92892881509516</v>
+        <v>-25.89224418253264</v>
       </c>
       <c r="F27" t="n">
-        <v>7.422311797797934</v>
+        <v>7.465071258879012</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.763660104052927</v>
+        <v>-3.728323978683108</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.193794419886685</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.89089567533994</v>
+        <v>-25.85315056624725</v>
       </c>
       <c r="F28" t="n">
-        <v>7.257558258837653</v>
+        <v>7.302857626670026</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.947043989956984</v>
+        <v>-3.922299537586122</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.180675665456881</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.85311128933872</v>
+        <v>-25.8057564299602</v>
       </c>
       <c r="F29" t="n">
-        <v>7.210111753339238</v>
+        <v>7.251719091770243</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.741154435468</v>
+        <v>-3.710020939310375</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.072360448569824</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.71323312577772</v>
+        <v>-25.66195057554668</v>
       </c>
       <c r="F30" t="n">
-        <v>7.302909995881392</v>
+        <v>7.348156994502397</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.906117451273748</v>
+        <v>-3.880338706978389</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8839999164963395</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.36793673063004</v>
+        <v>-25.31835617976842</v>
       </c>
       <c r="F31" t="n">
-        <v>7.14444076228514</v>
+        <v>7.193903482421181</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.249882046988949</v>
+        <v>-4.22220491878154</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6370362755511142</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.96339766512355</v>
+        <v>-24.90986323880373</v>
       </c>
       <c r="F32" t="n">
-        <v>7.243889894670891</v>
+        <v>7.294740398908155</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.210474215435354</v>
+        <v>-4.186908070320247</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.3556071858795236</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.79908926445988</v>
+        <v>-24.73864210223963</v>
       </c>
       <c r="F33" t="n">
-        <v>7.22529882463564</v>
+        <v>7.27452588332053</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.344264458174953</v>
+        <v>-4.324351065552687</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.06532272274912784</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.37987372746781</v>
+        <v>-24.32758306991796</v>
       </c>
       <c r="F34" t="n">
-        <v>7.325297833740744</v>
+        <v>7.382249351102252</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.387770180518008</v>
+        <v>-4.365696557926858</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.2104357460105285</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.24646316151063</v>
+        <v>-24.20353350049261</v>
       </c>
       <c r="F35" t="n">
-        <v>7.223230240786648</v>
+        <v>7.276463544141105</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.544393399413577</v>
+        <v>-4.533500603449261</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.4513835682231558</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86200768856334</v>
+        <v>-23.8279807934777</v>
       </c>
       <c r="F36" t="n">
-        <v>7.349152009518368</v>
+        <v>7.407726972432251</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.515354671710629</v>
+        <v>-4.507617120731169</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.6428304916790964</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.30985290851639</v>
+        <v>-23.28133787292711</v>
       </c>
       <c r="F37" t="n">
-        <v>7.323988603456571</v>
+        <v>7.38177802819995</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.627896106938106</v>
+        <v>-4.62186055532807</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.7769708184328934</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.79159410052666</v>
+        <v>-22.76243754209813</v>
       </c>
       <c r="F38" t="n">
-        <v>7.256982197512617</v>
+        <v>7.309665624147723</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.570001943771993</v>
+        <v>-4.563154669385771</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.8526111918060687</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.59242089739548</v>
+        <v>-22.56829178325818</v>
       </c>
       <c r="F39" t="n">
-        <v>7.434409085623689</v>
+        <v>7.48766857358383</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.74359278715044</v>
+        <v>-4.741956249295224</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.8757641976297683</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.89477135586842</v>
+        <v>-21.87382367132166</v>
       </c>
       <c r="F40" t="n">
-        <v>7.673841119993175</v>
+        <v>7.733960974642382</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.731246745570692</v>
+        <v>-4.727175039386915</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.856540457861569</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.24582518091259</v>
+        <v>-21.22461565030899</v>
       </c>
       <c r="F41" t="n">
-        <v>7.674076781444326</v>
+        <v>7.734432297544683</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.745543540273856</v>
+        <v>-4.74367134096749</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.8091654863784957</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.52411198676244</v>
+        <v>-20.50452590171122</v>
       </c>
       <c r="F42" t="n">
-        <v>7.708116768832814</v>
+        <v>7.772085760517488</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.082277569363051</v>
+        <v>-5.080274447028267</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.7478496041459234</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.74752895140261</v>
+        <v>-19.71691914735866</v>
       </c>
       <c r="F43" t="n">
-        <v>7.804633225382019</v>
+        <v>7.867790494290505</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.232629575197433</v>
+        <v>-5.237421358037505</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.6873396501628081</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.0432416123348</v>
+        <v>-19.02279143529602</v>
       </c>
       <c r="F44" t="n">
-        <v>7.624404584462818</v>
+        <v>7.686069330847348</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.063516299390858</v>
+        <v>-5.061225146393555</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.6392237672689692</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.59500043994263</v>
+        <v>-18.57369926321914</v>
       </c>
       <c r="F45" t="n">
-        <v>7.640377193929724</v>
+        <v>7.698585572364038</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.277195774070669</v>
+        <v>-5.271566083848726</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.6126298384499687</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.88872307084287</v>
+        <v>-17.86302288036456</v>
       </c>
       <c r="F46" t="n">
-        <v>7.771457329981085</v>
+        <v>7.826575924944752</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.416105107221382</v>
+        <v>-5.406351341604297</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.6119277691374992</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.71476564298486</v>
+        <v>-17.70086161736695</v>
       </c>
       <c r="F47" t="n">
-        <v>7.637915840995479</v>
+        <v>7.6975381881367</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.704188138950723</v>
+        <v>-5.701124540085758</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.6378077810584487</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.09637690286161</v>
+        <v>-17.07525901837791</v>
       </c>
       <c r="F48" t="n">
-        <v>7.602933207802387</v>
+        <v>7.664467031158499</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.795781889631439</v>
+        <v>-5.795205828306402</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.6873663487509142</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.263444596071</v>
+        <v>-16.23516522193287</v>
       </c>
       <c r="F49" t="n">
-        <v>7.558393193534835</v>
+        <v>7.62435221525145</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.050492641417219</v>
+        <v>-6.05482619365783</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.7564436130645481</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.7020204656121</v>
+        <v>-15.67490630642689</v>
       </c>
       <c r="F50" t="n">
-        <v>7.306575840677075</v>
+        <v>7.36706227980585</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.271477621082713</v>
+        <v>-6.277748834143901</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.8399477108734906</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.98516451581623</v>
+        <v>-14.95362515827051</v>
       </c>
       <c r="F51" t="n">
-        <v>7.177040596361038</v>
+        <v>7.235196605583985</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.235028649971348</v>
+        <v>-6.243591016029836</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.9352273312786819</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.34252883083011</v>
+        <v>-14.31694647107737</v>
       </c>
       <c r="F52" t="n">
-        <v>7.071045312554424</v>
+        <v>7.128049199127299</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.449834062695547</v>
+        <v>-6.471462546990079</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.039373821823316</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.84544027653545</v>
+        <v>-13.81468645716024</v>
       </c>
       <c r="F53" t="n">
-        <v>7.098277302465214</v>
+        <v>7.151301128974205</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.496717599171768</v>
+        <v>-6.512310531856264</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.153896444394053</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.37186549814454</v>
+        <v>-13.34692466123105</v>
       </c>
       <c r="F54" t="n">
-        <v>6.87782910721623</v>
+        <v>6.925249428108962</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.711575381107335</v>
+        <v>-6.721944484957982</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.278434633653252</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.77665013405115</v>
+        <v>-12.75381715789517</v>
       </c>
       <c r="F55" t="n">
-        <v>6.878064768667381</v>
+        <v>6.928784349876228</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.009294347728185</v>
+        <v>-7.024285034481962</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.418397661240914</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.50841503342986</v>
+        <v>-12.48738879506605</v>
       </c>
       <c r="F56" t="n">
-        <v>6.893696978260402</v>
+        <v>6.947113573854645</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.993766876557899</v>
+        <v>-7.003442088357934</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.57506155901432</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.0672698891779</v>
+        <v>-12.04414888235941</v>
       </c>
       <c r="F57" t="n">
-        <v>6.569374452265164</v>
+        <v>6.615721204324874</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.240242569856234</v>
+        <v>-7.244353552948536</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.756358506898372</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.64197952366727</v>
+        <v>-11.61491773369342</v>
       </c>
       <c r="F58" t="n">
-        <v>6.702392249137101</v>
+        <v>6.749969677663933</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.922587209361313</v>
+        <v>-7.93409534355919</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.962675842827673</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.55287331052648</v>
+        <v>-11.53242313348771</v>
       </c>
       <c r="F59" t="n">
-        <v>6.562645008604517</v>
+        <v>6.611296005964371</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.972272498645664</v>
+        <v>-7.979669649751239</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.200810805836767</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.30868877022545</v>
+        <v>-11.28789819331279</v>
       </c>
       <c r="F60" t="n">
-        <v>6.429967611606465</v>
+        <v>6.475031317987686</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.20578681213069</v>
+        <v>-8.215841700713135</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.467251974342871</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.3501520933252</v>
+        <v>-11.32961027016653</v>
       </c>
       <c r="F61" t="n">
-        <v>6.271838777884097</v>
+        <v>6.311901224579779</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.660574135943728</v>
+        <v>-8.677096622129985</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.7662243519261</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.37157110077426</v>
+        <v>-11.35960473597692</v>
       </c>
       <c r="F62" t="n">
-        <v>6.242433465701581</v>
+        <v>6.287366249054385</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.87009025831987</v>
+        <v>-8.882724330562136</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.091942645547369</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.02224227635133</v>
+        <v>-10.99646353205597</v>
       </c>
       <c r="F63" t="n">
-        <v>6.523551392319123</v>
+        <v>6.571652512959624</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.906709429368178</v>
+        <v>-8.91825684047458</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.44544296260883</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.82525548779472</v>
+        <v>-10.79532648349853</v>
       </c>
       <c r="F64" t="n">
-        <v>6.373487417147259</v>
+        <v>6.427453889460853</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.106118293950507</v>
+        <v>-9.106563432247126</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.818036151538897</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.87254488565903</v>
+        <v>-10.85672938382623</v>
       </c>
       <c r="F65" t="n">
-        <v>6.337928722629131</v>
+        <v>6.395089716836106</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.171972577244389</v>
+        <v>-9.175193283743454</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.206906136037524</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.59922997153516</v>
+        <v>-10.57889762522196</v>
       </c>
       <c r="F66" t="n">
-        <v>6.199228866323884</v>
+        <v>6.248036971317839</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.51974341762916</v>
+        <v>-9.527035830312</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.601868292085291</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.83427608445267</v>
+        <v>-10.81838202880281</v>
       </c>
       <c r="F67" t="n">
-        <v>5.949453912709434</v>
+        <v>5.999283217325044</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.566522215682646</v>
+        <v>-9.570908137134625</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.998911827851781</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.93892286106658</v>
+        <v>-10.92733617305165</v>
       </c>
       <c r="F68" t="n">
-        <v>5.917037370873321</v>
+        <v>5.96595021429001</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.398246847257942</v>
+        <v>-9.406010582843084</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.389889829858375</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.73922596582173</v>
+        <v>-10.71762366613289</v>
       </c>
       <c r="F69" t="n">
-        <v>5.933900256933464</v>
+        <v>5.9893854363767</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.430977604362257</v>
+        <v>-9.439121016729811</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.772750473769004</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.97652395482802</v>
+        <v>-10.95589048554946</v>
       </c>
       <c r="F70" t="n">
-        <v>5.70593707985333</v>
+        <v>5.760139213618076</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.493336242797398</v>
+        <v>-9.506428545639125</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.142475026276738</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.9584434846036</v>
+        <v>-10.94156750624061</v>
       </c>
       <c r="F71" t="n">
-        <v>5.439927670715139</v>
+        <v>5.491537528517224</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.471603020080133</v>
+        <v>-9.483242077306427</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.498383970426324</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.0223601070769</v>
+        <v>-11.00922852732665</v>
       </c>
       <c r="F72" t="n">
-        <v>5.617380743431895</v>
+        <v>5.66846690912031</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.698793751292605</v>
+        <v>-9.70929377817167</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.836824186474219</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.45060933302976</v>
+        <v>-11.44858002608929</v>
       </c>
       <c r="F73" t="n">
-        <v>5.711854800737791</v>
+        <v>5.764826258035414</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.485336845761104</v>
+        <v>-9.501414193650742</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.157680841840054</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.57875679324458</v>
+        <v>-11.57181787273846</v>
       </c>
       <c r="F74" t="n">
-        <v>5.712221385217358</v>
+        <v>5.767785118477644</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.536946703563187</v>
+        <v>-9.548847606846316</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.458829001098125</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.08322940634197</v>
+        <v>-12.07928862318661</v>
       </c>
       <c r="F75" t="n">
-        <v>5.648618978012253</v>
+        <v>5.708686463450093</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.648545492986061</v>
+        <v>-9.659975073366887</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.736398238177206</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.05002732633535</v>
+        <v>-12.04124239112855</v>
       </c>
       <c r="F76" t="n">
-        <v>5.546368092818373</v>
+        <v>5.605702409297075</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.663588548951203</v>
+        <v>-9.679220758544224</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.984356151027755</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.69626339460295</v>
+        <v>-12.6918251039396</v>
       </c>
       <c r="F77" t="n">
-        <v>5.537517696097366</v>
+        <v>5.596982935604485</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.434172126255637</v>
+        <v>-9.453352349918767</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.196247524678885</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.39007689139738</v>
+        <v>-13.3849708932891</v>
       </c>
       <c r="F78" t="n">
-        <v>5.599234811693263</v>
+        <v>5.662968141926785</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.887869605578935</v>
+        <v>-8.895764264192495</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.361805878632593</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.70863880414226</v>
+        <v>-13.70324477537147</v>
       </c>
       <c r="F79" t="n">
-        <v>5.781374928827356</v>
+        <v>5.842489798492533</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.028638045733173</v>
+        <v>-9.039347549457705</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.472883811093439</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.2890598660245</v>
+        <v>-14.28640212854763</v>
       </c>
       <c r="F80" t="n">
-        <v>5.802139321134333</v>
+        <v>5.859850192060661</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.488659107329022</v>
+        <v>-8.488213969032405</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.518022486699538</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.86770037472026</v>
+        <v>-14.86399525301606</v>
       </c>
       <c r="F81" t="n">
-        <v>5.862704314080158</v>
+        <v>5.921541123050875</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.357330217523669</v>
+        <v>-8.360079601120431</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.492073791009675</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.72121378157807</v>
+        <v>-15.71931539766602</v>
       </c>
       <c r="F82" t="n">
-        <v>5.860085853511813</v>
+        <v>5.923033645574831</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.246477689362774</v>
+        <v>-8.247119212202019</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.385705249199864</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.75075320014288</v>
+        <v>-16.7519184150958</v>
       </c>
       <c r="F83" t="n">
-        <v>6.020204717266123</v>
+        <v>6.087603892295328</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.084054580308321</v>
+        <v>-8.089278409142169</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.197896344152571</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.7138360894831</v>
+        <v>-17.71251376689608</v>
       </c>
       <c r="F84" t="n">
-        <v>5.949453912709434</v>
+        <v>6.007452814298281</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.730654049701609</v>
+        <v>-7.73703000118553</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.923216152695427</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.5805596299082</v>
+        <v>-18.59145242587252</v>
       </c>
       <c r="F85" t="n">
-        <v>6.193311145439425</v>
+        <v>6.263040750374458</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.534544445435394</v>
+        <v>-7.543905441967228</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.566956685846526</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.85438832719678</v>
+        <v>-19.87173562846207</v>
       </c>
       <c r="F86" t="n">
-        <v>6.070924298474969</v>
+        <v>6.133217475395901</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.518375451425863</v>
+        <v>-7.529215878178811</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.129280799462698</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.91139539712354</v>
+        <v>-20.92508994589598</v>
       </c>
       <c r="F87" t="n">
-        <v>6.124916955394248</v>
+        <v>6.190509392631295</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.051255178335918</v>
+        <v>-7.055772022816313</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.621748152111226</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.3198260599279</v>
+        <v>-22.33719954579887</v>
       </c>
       <c r="F88" t="n">
-        <v>6.408339127311933</v>
+        <v>6.484143560765528</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.113338878411383</v>
+        <v>-7.114870677843865</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.050981072983157</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.91304148504039</v>
+        <v>-23.93068990927103</v>
       </c>
       <c r="F89" t="n">
-        <v>6.258746475042371</v>
+        <v>6.326224203888628</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.799608025415101</v>
+        <v>-6.795418488505748</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.435251620784751</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.25988595527727</v>
+        <v>-25.27617278001238</v>
       </c>
       <c r="F90" t="n">
-        <v>6.511611212127469</v>
+        <v>6.58914382955617</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.167514827570446</v>
+        <v>-7.173602748391848</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.784442738761979</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.99271769789393</v>
+        <v>-27.01624456610051</v>
       </c>
       <c r="F91" t="n">
-        <v>6.624466862623147</v>
+        <v>6.700480772922209</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.728032405779385</v>
+        <v>-6.731776804392118</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.11911811440159</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.9745912251659</v>
+        <v>-29.00145663059712</v>
       </c>
       <c r="F92" t="n">
-        <v>6.390847810715387</v>
+        <v>6.46201756896301</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.97602680620736</v>
+        <v>-6.983672711066928</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.447218828809963</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.83337092111995</v>
+        <v>-30.8551303284429</v>
       </c>
       <c r="F93" t="n">
-        <v>6.384537320745675</v>
+        <v>6.455995109655817</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.356577589553932</v>
+        <v>-6.358790188734185</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.784416982741008</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.83993653155142</v>
+        <v>-32.86644844480591</v>
       </c>
       <c r="F94" t="n">
-        <v>6.381814121754596</v>
+        <v>6.451491357478263</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.656404416932301</v>
+        <v>-6.668645720089315</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.132421331358399</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.12476594658092</v>
+        <v>-35.15677662702895</v>
       </c>
       <c r="F95" t="n">
-        <v>6.310591994295606</v>
+        <v>6.386605904594668</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.123809537330885</v>
+        <v>-6.130054565786389</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.495378088511726</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.52779267166554</v>
+        <v>-37.56083764403805</v>
       </c>
       <c r="F96" t="n">
-        <v>6.102214902266694</v>
+        <v>6.179695150484029</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.082869906344808</v>
+        <v>-6.089769549942397</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.8707034392726773</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.53951664941664</v>
+        <v>-39.57622746658484</v>
       </c>
       <c r="F97" t="n">
-        <v>6.013030135308856</v>
+        <v>6.092997921066119</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.695180634595615</v>
+        <v>-5.69316441995799</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2513738142884882</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.96367435128779</v>
+        <v>-41.99825112309279</v>
       </c>
       <c r="F98" t="n">
-        <v>5.92855859737404</v>
+        <v>5.998235833097706</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.878067012991687</v>
+        <v>-5.874872491098306</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.3578690894154166</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.26699009792982</v>
+        <v>-44.3104696356672</v>
       </c>
       <c r="F99" t="n">
-        <v>5.776268930719082</v>
+        <v>5.847491058178072</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.630871243037057</v>
+        <v>-5.618433555337417</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.9711203046702056</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.41165331873581</v>
+        <v>-46.45197761148832</v>
       </c>
       <c r="F100" t="n">
-        <v>5.52026204095197</v>
+        <v>5.586692385570889</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.69316441995799</v>
+        <v>-5.683253546706803</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.55913990996574</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.84814396988387</v>
+        <v>-48.88554867910268</v>
       </c>
       <c r="F101" t="n">
-        <v>5.457183325860535</v>
+        <v>5.525813177356863</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.744630262428815</v>
+        <v>-5.736670142301045</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.15616165356517</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.25141944872248</v>
+        <v>-51.29318389478758</v>
       </c>
       <c r="F102" t="n">
-        <v>4.83092611172941</v>
+        <v>4.893795349975378</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.445549696312424</v>
+        <v>-5.425989795866886</v>
       </c>
     </row>
   </sheetData>
